--- a/M8x_WM_catalog_V1.4-20170329.xlsx
+++ b/M8x_WM_catalog_V1.4-20170329.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1066">
   <si>
     <t>ECU</t>
   </si>
@@ -4480,10 +4480,6 @@
   </si>
   <si>
     <t>Alive monitoring TPMS</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coolant temperature (RED)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -5234,10 +5230,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Oil Pressure</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 WarnMsg_DME(0x492):: BIT Status=0x1h
 AND
@@ -5322,10 +5314,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>排放增加</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Please check engine, 
 drive carefully</t>
     <phoneticPr fontId="27" type="noConversion"/>
@@ -5420,10 +5408,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>message是否来自IPC</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>信息分组</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -5489,10 +5473,6 @@
   </si>
   <si>
     <t>显示LCD指示器</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display symbol for pop-up</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -5806,19 +5786,60 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>CDS link</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号显示（中间区域）</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>（LED灯）</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>warming message sent out from IPC</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>CDS link</t>
+    <t>message是否来自IPC</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>符号显示（中间区域）</t>
+    <t>排放增加</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>（LED灯）</t>
+    <t>ECU ID (hex)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tire Pressure Monitoring System</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>If signal timeout, telltale will be On;
+If signal invalid or reserved, telltale will be Off, Sound OFF,</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oil Pressure</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coolant temperature (RED)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>always</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display symbol for pop-up</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -15067,7 +15088,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17811750" y="131458607"/>
+          <a:off x="20859750" y="16138071"/>
           <a:ext cx="1114379" cy="1292679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18735,7 +18756,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C6" s="182"/>
       <c r="D6" s="183"/>
@@ -19075,7 +19096,7 @@
     </row>
     <row r="35" spans="2:2" ht="176.25" thickBot="1">
       <c r="B35" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="14.25" thickBot="1"/>
@@ -19164,15 +19185,15 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="88" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="8" style="88" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="89" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="89" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="12" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="94" customWidth="1"/>
@@ -19209,37 +19230,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>22</v>
+        <v>1058</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="99" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F1" s="99" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>1055</v>
       </c>
-      <c r="G1" s="60" t="s">
-        <v>1057</v>
-      </c>
       <c r="H1" s="99" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I1" s="99" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="J1" s="99" t="s">
+        <v>970</v>
+      </c>
+      <c r="K1" s="99" t="s">
+        <v>971</v>
+      </c>
+      <c r="L1" s="99" t="s">
         <v>974</v>
-      </c>
-      <c r="K1" s="99" t="s">
-        <v>975</v>
-      </c>
-      <c r="L1" s="99" t="s">
-        <v>978</v>
       </c>
       <c r="M1" s="99" t="s">
         <v>21</v>
@@ -19248,7 +19269,7 @@
         <v>187</v>
       </c>
       <c r="O1" s="99" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="P1" s="120" t="s">
         <v>193</v>
@@ -19257,37 +19278,37 @@
         <v>174</v>
       </c>
       <c r="R1" s="117" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="S1" s="99" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="T1" s="99" t="s">
-        <v>988</v>
+        <v>1065</v>
       </c>
       <c r="U1" s="99" t="s">
         <v>166</v>
       </c>
       <c r="V1" s="117" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="W1" s="99" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="X1" s="117" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="Y1" s="60" t="s">
         <v>48</v>
       </c>
       <c r="Z1" s="60" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="AA1" s="60" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="AB1" s="60" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="AF1" s="121"/>
       <c r="AG1" s="121"/>
@@ -20685,75 +20706,75 @@
       <c r="A18" s="143"/>
       <c r="B18" s="151"/>
       <c r="C18" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D18" s="152" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E18" s="144"/>
       <c r="F18" s="145" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G18" s="145" t="s">
         <v>1056</v>
       </c>
-      <c r="G18" s="145" t="s">
-        <v>970</v>
-      </c>
       <c r="H18" s="152" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="I18" s="143" t="s">
+        <v>969</v>
+      </c>
+      <c r="J18" s="153" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K18" s="154" t="s">
         <v>973</v>
       </c>
-      <c r="J18" s="153" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K18" s="154" t="s">
-        <v>977</v>
-      </c>
       <c r="L18" s="154" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="M18" s="146" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="N18" s="152"/>
       <c r="O18" s="143" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="P18" s="144" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q18" s="144" t="s">
+        <v>979</v>
+      </c>
+      <c r="R18" s="152" t="s">
+        <v>981</v>
+      </c>
+      <c r="S18" s="144" t="s">
         <v>983</v>
       </c>
-      <c r="R18" s="152" t="s">
+      <c r="T18" s="144" t="s">
+        <v>984</v>
+      </c>
+      <c r="U18" s="144" t="s">
         <v>985</v>
       </c>
-      <c r="S18" s="144" t="s">
+      <c r="V18" s="152" t="s">
         <v>987</v>
       </c>
-      <c r="T18" s="144" t="s">
+      <c r="W18" s="152" t="s">
         <v>989</v>
       </c>
-      <c r="U18" s="144" t="s">
-        <v>990</v>
-      </c>
-      <c r="V18" s="152" t="s">
-        <v>992</v>
-      </c>
-      <c r="W18" s="152" t="s">
-        <v>994</v>
-      </c>
       <c r="X18" s="152" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="Y18" s="152" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="Z18" s="152" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="AA18" s="147" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AB18" s="147"/>
       <c r="AF18" s="148"/>
@@ -20775,23 +20796,23 @@
         <v>20</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>495</v>
+        <v>1061</v>
       </c>
       <c r="F19" s="106" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G19" s="149" t="s">
         <v>475</v>
       </c>
       <c r="H19" s="107" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>931</v>
+        <v>1062</v>
       </c>
       <c r="J19" s="107"/>
       <c r="K19" s="53" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="L19" s="77" t="s">
         <v>180</v>
@@ -20804,10 +20825,10 @@
         <v>125</v>
       </c>
       <c r="P19" s="79" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="Q19" s="79" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="R19" s="107" t="s">
         <v>63</v>
@@ -20837,7 +20858,7 @@
         <v>223</v>
       </c>
       <c r="AA19" s="140" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="AB19" s="139" t="s">
         <v>223</v>
@@ -20869,13 +20890,13 @@
         <v>831</v>
       </c>
       <c r="G20" s="149" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H20" s="107" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>860</v>
+        <v>1063</v>
       </c>
       <c r="J20" s="107"/>
       <c r="K20" s="53" t="s">
@@ -20894,10 +20915,10 @@
         <v>147</v>
       </c>
       <c r="P20" s="79" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="Q20" s="79" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="R20" s="107" t="s">
         <v>63</v>
@@ -20917,7 +20938,7 @@
         <v>95</v>
       </c>
       <c r="W20" s="107" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="X20" s="107"/>
       <c r="Y20" s="107" t="s">
@@ -21044,13 +21065,13 @@
         <v>557</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G22" s="105" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I22" s="49" t="s">
         <v>593</v>
@@ -21074,7 +21095,7 @@
         <v>594</v>
       </c>
       <c r="P22" s="79" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q22" s="79" t="s">
         <v>638</v>
@@ -21132,7 +21153,7 @@
         <v>736</v>
       </c>
       <c r="F23" s="106" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G23" s="104" t="s">
         <v>475</v>
@@ -21141,13 +21162,13 @@
         <v>60</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J23" s="77" t="s">
         <v>180</v>
       </c>
       <c r="K23" s="53" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L23" s="133" t="s">
         <v>731</v>
@@ -21195,7 +21216,7 @@
         <v>224</v>
       </c>
       <c r="AA23" s="59" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AB23" s="54" t="s">
         <v>224</v>
@@ -21209,7 +21230,7 @@
     </row>
     <row r="24" spans="1:35" ht="165.75" hidden="1" customHeight="1">
       <c r="A24" s="49" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>119</v>
@@ -21221,10 +21242,10 @@
         <v>28</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F24" s="106" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G24" s="104" t="s">
         <v>475</v>
@@ -21233,7 +21254,7 @@
         <v>60</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J24" s="77" t="s">
         <v>180</v>
@@ -21644,7 +21665,7 @@
         <v>760</v>
       </c>
       <c r="F29" s="76" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G29" s="104" t="s">
         <v>475</v>
@@ -21816,7 +21837,7 @@
         <v>557</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G31" s="104" t="s">
         <v>475</v>
@@ -22180,7 +22201,7 @@
         <v>557</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G35" s="104" t="s">
         <v>475</v>
@@ -22298,7 +22319,7 @@
         <v>80</v>
       </c>
       <c r="P36" s="79" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q36" s="79" t="s">
         <v>315</v>
@@ -22478,10 +22499,10 @@
         <v>156</v>
       </c>
       <c r="P38" s="79" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q38" s="79" t="s">
         <v>877</v>
-      </c>
-      <c r="Q38" s="79" t="s">
-        <v>878</v>
       </c>
       <c r="R38" s="55" t="s">
         <v>90</v>
@@ -22661,7 +22682,7 @@
         <v>436</v>
       </c>
       <c r="Q40" s="79" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R40" s="55" t="s">
         <v>90</v>
@@ -23271,7 +23292,7 @@
         <v>99</v>
       </c>
       <c r="I47" s="116" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J47" s="55"/>
       <c r="K47" s="53" t="s">
@@ -23293,7 +23314,7 @@
         <v>576</v>
       </c>
       <c r="Q47" s="79" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R47" s="55" t="s">
         <v>63</v>
@@ -23532,7 +23553,7 @@
         <v>472</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G50" s="104" t="s">
         <v>475</v>
@@ -23728,7 +23749,7 @@
         <v>417</v>
       </c>
       <c r="K52" s="52" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L52" s="78" t="s">
         <v>416</v>
@@ -24070,16 +24091,16 @@
         <v>557</v>
       </c>
       <c r="F56" s="106" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G56" s="149" t="s">
         <v>475</v>
       </c>
       <c r="H56" s="107" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J56" s="107"/>
       <c r="K56" s="53" t="s">
@@ -24096,10 +24117,10 @@
         <v>146</v>
       </c>
       <c r="P56" s="79" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="Q56" s="79" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="R56" s="107" t="s">
         <v>63</v>
@@ -24248,7 +24269,7 @@
         <v>561</v>
       </c>
       <c r="F58" s="106" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G58" s="149" t="s">
         <v>475</v>
@@ -24257,11 +24278,11 @@
         <v>99</v>
       </c>
       <c r="I58" s="41" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J58" s="107"/>
       <c r="K58" s="53" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L58" s="77" t="s">
         <v>180</v>
@@ -24274,10 +24295,10 @@
         <v>131</v>
       </c>
       <c r="P58" s="79" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="Q58" s="79" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="R58" s="41" t="s">
         <v>63</v>
@@ -24302,7 +24323,7 @@
       </c>
       <c r="X58" s="107"/>
       <c r="Y58" s="107" t="s">
-        <v>176</v>
+        <v>1064</v>
       </c>
       <c r="Z58" s="107" t="s">
         <v>223</v>
@@ -24365,10 +24386,10 @@
         <v>142</v>
       </c>
       <c r="P59" s="79" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="Q59" s="79" t="s">
-        <v>949</v>
+        <v>1057</v>
       </c>
       <c r="R59" s="41" t="s">
         <v>63</v>
@@ -24389,7 +24410,7 @@
         <v>95</v>
       </c>
       <c r="W59" s="107" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="X59" s="107"/>
       <c r="Y59" s="107" t="s">
@@ -24428,10 +24449,10 @@
         <v>557</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H60" s="55" t="s">
         <v>127</v>
@@ -24515,7 +24536,7 @@
         <v>557</v>
       </c>
       <c r="F61" s="76" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G61" s="58" t="s">
         <v>483</v>
@@ -24664,7 +24685,7 @@
         <v>224</v>
       </c>
       <c r="AA62" s="59" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AB62" s="54" t="s">
         <v>224</v>
@@ -24871,7 +24892,7 @@
         <v>570</v>
       </c>
       <c r="F65" s="106" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G65" s="104" t="s">
         <v>475</v>
@@ -25047,7 +25068,7 @@
         <v>570</v>
       </c>
       <c r="F67" s="106" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G67" s="104" t="s">
         <v>475</v>
@@ -25161,7 +25182,7 @@
         <v>246</v>
       </c>
       <c r="P68" s="71" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q68" s="79" t="s">
         <v>353</v>
@@ -25223,7 +25244,7 @@
         <v>495</v>
       </c>
       <c r="F69" s="106" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G69" s="77" t="s">
         <v>180</v>
@@ -25251,13 +25272,13 @@
         <v>646</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="Q69" s="79" t="s">
         <v>714</v>
       </c>
       <c r="R69" s="142" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="S69" s="142" t="str">
         <f t="shared" si="1"/>
@@ -25339,10 +25360,10 @@
         <v>647</v>
       </c>
       <c r="P70" s="41" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="Q70" s="79" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="R70" s="142" t="s">
         <v>63</v>
@@ -25399,7 +25420,7 @@
         <v>495</v>
       </c>
       <c r="F71" s="106" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G71" s="77" t="s">
         <v>180</v>
@@ -25427,10 +25448,10 @@
         <v>648</v>
       </c>
       <c r="P71" s="41" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Q71" s="79" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="R71" s="142" t="s">
         <v>63</v>
@@ -25515,10 +25536,10 @@
         <v>649</v>
       </c>
       <c r="P72" s="41" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="Q72" s="79" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="R72" s="142" t="s">
         <v>63</v>
@@ -25603,10 +25624,10 @@
         <v>650</v>
       </c>
       <c r="P73" s="41" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="Q73" s="79" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="R73" s="142" t="s">
         <v>63</v>
@@ -25691,10 +25712,10 @@
         <v>651</v>
       </c>
       <c r="P74" s="41" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="Q74" s="79" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="R74" s="142" t="s">
         <v>63</v>
@@ -25779,10 +25800,10 @@
         <v>652</v>
       </c>
       <c r="P75" s="41" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Q75" s="79" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="R75" s="142" t="s">
         <v>63</v>
@@ -27404,7 +27425,7 @@
         <v>341</v>
       </c>
       <c r="Q93" s="79" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="R93" s="55" t="s">
         <v>90</v>
@@ -27892,7 +27913,7 @@
         <v>557</v>
       </c>
       <c r="F99" s="76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G99" s="58" t="s">
         <v>484</v>
@@ -28062,10 +28083,10 @@
       </c>
       <c r="E101" s="56"/>
       <c r="F101" s="76" t="s">
+        <v>894</v>
+      </c>
+      <c r="G101" s="58" t="s">
         <v>895</v>
-      </c>
-      <c r="G101" s="58" t="s">
-        <v>896</v>
       </c>
       <c r="H101" s="55"/>
       <c r="I101" s="49" t="s">
@@ -28086,10 +28107,10 @@
       </c>
       <c r="O101" s="49"/>
       <c r="P101" s="71" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q101" s="71" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R101" s="55" t="s">
         <v>90</v>
@@ -28279,9 +28300,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U4341"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -28321,13 +28342,13 @@
         <v>277</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>272</v>
@@ -28345,13 +28366,13 @@
         <v>425</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M1" s="61" t="s">
         <v>284</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="O1" s="61" t="s">
         <v>274</v>
@@ -28366,7 +28387,7 @@
         <v>275</v>
       </c>
       <c r="S1" s="61" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="T1" s="61" t="s">
         <v>276</v>
@@ -28377,102 +28398,102 @@
     </row>
     <row r="2" spans="1:21" s="159" customFormat="1" ht="44.25" customHeight="1">
       <c r="A2" s="157" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B2" s="157"/>
       <c r="C2" s="157" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D2" s="157" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E2" s="158"/>
       <c r="F2" s="157" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G2" s="157" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="157" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="157" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J2" s="157" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K2" s="157" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L2" s="163" t="s">
         <v>1005</v>
       </c>
-      <c r="H2" s="157" t="s">
+      <c r="M2" s="163" t="s">
         <v>1006</v>
       </c>
-      <c r="I2" s="157" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J2" s="157" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K2" s="157" t="s">
-        <v>1008</v>
-      </c>
-      <c r="L2" s="163" t="s">
+      <c r="N2" s="163" t="s">
         <v>1010</v>
       </c>
-      <c r="M2" s="163" t="s">
+      <c r="O2" s="163" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P2" s="158" t="s">
         <v>1011</v>
       </c>
-      <c r="N2" s="163" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O2" s="163" t="s">
+      <c r="Q2" s="158" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R2" s="158" t="s">
+        <v>1013</v>
+      </c>
+      <c r="S2" s="158" t="s">
         <v>1014</v>
       </c>
-      <c r="P2" s="158" t="s">
+      <c r="T2" s="158" t="s">
+        <v>1049</v>
+      </c>
+      <c r="U2" s="157" t="s">
         <v>1016</v>
-      </c>
-      <c r="Q2" s="158" t="s">
-        <v>1017</v>
-      </c>
-      <c r="R2" s="158" t="s">
-        <v>1018</v>
-      </c>
-      <c r="S2" s="158" t="s">
-        <v>1019</v>
-      </c>
-      <c r="T2" s="158" t="s">
-        <v>1054</v>
-      </c>
-      <c r="U2" s="157" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="159" customHeight="1">
       <c r="A3" s="161" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B3" s="161" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="161" t="s">
         <v>377</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E3" s="76" t="s">
+        <v>910</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G3" s="70" t="s">
         <v>911</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>912</v>
       </c>
       <c r="H3" s="70"/>
       <c r="I3" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>913</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>914</v>
       </c>
       <c r="K3" s="164" t="s">
         <v>180</v>
       </c>
       <c r="L3" s="70" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="N3" s="161" t="s">
         <v>90</v>
@@ -28496,12 +28517,12 @@
         <v>279</v>
       </c>
       <c r="U3" s="70" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="85.5" customHeight="1">
       <c r="A4" s="161" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B4" s="161" t="s">
         <v>91</v>
@@ -28510,23 +28531,23 @@
         <v>377</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
         <v>283</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K4" s="164" t="s">
         <v>180</v>
@@ -28571,13 +28592,13 @@
         <v>377</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>63</v>
@@ -28632,13 +28653,13 @@
         <v>377</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>63</v>
@@ -28693,13 +28714,13 @@
         <v>377</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>63</v>
@@ -28754,19 +28775,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F8" s="108" t="s">
+        <v>923</v>
+      </c>
+      <c r="G8" s="70" t="s">
         <v>924</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="H8" s="164" t="s">
         <v>925</v>
-      </c>
-      <c r="H8" s="164" t="s">
-        <v>926</v>
       </c>
       <c r="I8" s="164" t="s">
         <v>180</v>
@@ -28811,7 +28832,7 @@
         <v>458</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C9" s="161">
         <v>1</v>
@@ -29009,7 +29030,7 @@
         <v>505</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>565</v>
@@ -29172,10 +29193,10 @@
         <v>510</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>471</v>
+        <v>1059</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>622</v>
+        <v>1060</v>
       </c>
       <c r="G15" s="187"/>
       <c r="H15" s="187"/>
@@ -29220,7 +29241,7 @@
         <v>292</v>
       </c>
       <c r="B16" s="161" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="161">
         <v>3</v>
@@ -29340,7 +29361,7 @@
         <v>296</v>
       </c>
       <c r="B18" s="161" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C18" s="41">
         <v>1</v>
@@ -29396,10 +29417,10 @@
     </row>
     <row r="19" spans="1:21" ht="97.5" customHeight="1">
       <c r="A19" s="161" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B19" s="161" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C19" s="41">
         <v>1</v>
@@ -29408,7 +29429,7 @@
         <v>511</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F19" s="76" t="s">
         <v>620</v>
@@ -29462,7 +29483,7 @@
         <v>294</v>
       </c>
       <c r="B20" s="161" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C20" s="167">
         <v>1</v>
@@ -29716,7 +29737,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E24" s="76" t="s">
         <v>609</v>
@@ -29895,7 +29916,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E27" s="76" t="s">
         <v>609</v>
@@ -30137,7 +30158,7 @@
         <v>301</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C31" s="167">
         <v>3</v>
@@ -30196,13 +30217,13 @@
         <v>715</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C32" s="161">
         <v>1</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E32" s="76" t="s">
         <v>302</v>
@@ -30229,7 +30250,7 @@
         <v>477</v>
       </c>
       <c r="M32" s="161" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N32" s="161"/>
       <c r="O32" s="161" t="s">
@@ -30263,7 +30284,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E33" s="76" t="s">
         <v>302</v>
@@ -30322,7 +30343,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E34" s="76" t="s">
         <v>302</v>
@@ -30379,13 +30400,13 @@
         <v>718</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C35" s="161">
         <v>3</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E35" s="76" t="s">
         <v>302</v>
@@ -30637,7 +30658,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="76" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E39" s="76" t="s">
         <v>473</v>
@@ -30753,7 +30774,7 @@
         <v>309</v>
       </c>
       <c r="B41" s="161" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C41" s="167">
         <v>1</v>
@@ -30814,7 +30835,7 @@
         <v>397</v>
       </c>
       <c r="B42" s="161" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>488</v>
@@ -30938,13 +30959,13 @@
         <v>474</v>
       </c>
       <c r="B44" s="161" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C44" s="161" t="s">
         <v>377</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E44" s="76" t="s">
         <v>759</v>
@@ -31070,7 +31091,7 @@
         <v>377</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E46" s="76" t="s">
         <v>761</v>
@@ -31133,11 +31154,11 @@
         <v>1</v>
       </c>
       <c r="D47" s="189" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E47" s="196"/>
       <c r="F47" s="188" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G47" s="161" t="s">
         <v>672</v>
@@ -31263,7 +31284,7 @@
         <v>673</v>
       </c>
       <c r="N49" s="59" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O49" s="70" t="s">
         <v>90</v>
@@ -31296,7 +31317,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="174" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E50" s="131"/>
       <c r="F50" s="70"/>
@@ -31353,13 +31374,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="69" t="s">
+        <v>918</v>
+      </c>
+      <c r="E51" s="76" t="s">
         <v>919</v>
       </c>
-      <c r="E51" s="76" t="s">
+      <c r="F51" s="76" t="s">
         <v>920</v>
-      </c>
-      <c r="F51" s="76" t="s">
-        <v>921</v>
       </c>
       <c r="G51" s="70" t="s">
         <v>90</v>
@@ -31412,13 +31433,13 @@
         <v>799</v>
       </c>
       <c r="B52" s="161" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C52" s="167">
         <v>1</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E52" s="76" t="s">
         <v>801</v>

--- a/M8x_WM_catalog_V1.4-20170329.xlsx
+++ b/M8x_WM_catalog_V1.4-20170329.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1067">
   <si>
     <t>ECU</t>
   </si>
@@ -5261,10 +5261,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Drivetrain System</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Information
 Group</t>
     <phoneticPr fontId="27" type="noConversion"/>
@@ -5840,6 +5836,14 @@
   </si>
   <si>
     <t>Display symbol for pop-up</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drivetrain System</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -7244,15 +7248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7269,6 +7264,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7317,15 +7321,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7334,8 +7329,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7353,14 +7354,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -18740,60 +18744,60 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="178" t="s">
         <v>926</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="183" t="s">
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="180" t="s">
         <v>519</v>
       </c>
-      <c r="I6" s="185"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="185"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="182"/>
     </row>
     <row r="8" spans="1:9" ht="7.5" customHeight="1"/>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
@@ -18853,19 +18857,19 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
     </row>
     <row r="23" spans="1:11" ht="12" customHeight="1">
       <c r="A23" s="7" t="s">
@@ -18873,19 +18877,19 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" t="s">
@@ -18899,49 +18903,49 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="184" t="s">
         <v>521</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" customHeight="1"/>
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="177"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -19185,9 +19189,9 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.5"/>
@@ -19230,37 +19234,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="99" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I1" s="99" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J1" s="99" t="s">
+        <v>969</v>
+      </c>
+      <c r="K1" s="99" t="s">
         <v>970</v>
       </c>
-      <c r="K1" s="99" t="s">
-        <v>971</v>
-      </c>
       <c r="L1" s="99" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M1" s="99" t="s">
         <v>21</v>
@@ -19269,7 +19273,7 @@
         <v>187</v>
       </c>
       <c r="O1" s="99" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P1" s="120" t="s">
         <v>193</v>
@@ -19278,37 +19282,37 @@
         <v>174</v>
       </c>
       <c r="R1" s="117" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="S1" s="99" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="T1" s="99" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="U1" s="99" t="s">
         <v>166</v>
       </c>
       <c r="V1" s="117" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="W1" s="99" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="X1" s="117" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Y1" s="60" t="s">
         <v>48</v>
       </c>
       <c r="Z1" s="60" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA1" s="60" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AB1" s="60" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AF1" s="121"/>
       <c r="AG1" s="121"/>
@@ -20706,75 +20710,75 @@
       <c r="A18" s="143"/>
       <c r="B18" s="151"/>
       <c r="C18" s="151" t="s">
+        <v>964</v>
+      </c>
+      <c r="D18" s="152" t="s">
         <v>965</v>
-      </c>
-      <c r="D18" s="152" t="s">
-        <v>966</v>
       </c>
       <c r="E18" s="144"/>
       <c r="F18" s="145" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G18" s="145" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H18" s="152" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I18" s="143" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J18" s="153" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K18" s="154" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L18" s="154" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M18" s="146" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="N18" s="152"/>
       <c r="O18" s="143" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="P18" s="144" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q18" s="144" t="s">
         <v>978</v>
       </c>
-      <c r="Q18" s="144" t="s">
-        <v>979</v>
-      </c>
       <c r="R18" s="152" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="S18" s="144" t="s">
+        <v>982</v>
+      </c>
+      <c r="T18" s="144" t="s">
         <v>983</v>
       </c>
-      <c r="T18" s="144" t="s">
+      <c r="U18" s="144" t="s">
         <v>984</v>
       </c>
-      <c r="U18" s="144" t="s">
-        <v>985</v>
-      </c>
       <c r="V18" s="152" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="W18" s="152" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="X18" s="152" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Y18" s="152" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="Z18" s="152" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AA18" s="147" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AB18" s="147"/>
       <c r="AF18" s="148"/>
@@ -20796,7 +20800,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F19" s="106" t="s">
         <v>928</v>
@@ -20808,11 +20812,11 @@
         <v>929</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J19" s="107"/>
       <c r="K19" s="53" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L19" s="77" t="s">
         <v>180</v>
@@ -20825,10 +20829,10 @@
         <v>125</v>
       </c>
       <c r="P19" s="79" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q19" s="79" t="s">
         <v>938</v>
-      </c>
-      <c r="Q19" s="79" t="s">
-        <v>939</v>
       </c>
       <c r="R19" s="107" t="s">
         <v>63</v>
@@ -20858,7 +20862,7 @@
         <v>223</v>
       </c>
       <c r="AA19" s="140" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AB19" s="139" t="s">
         <v>223</v>
@@ -20890,13 +20894,13 @@
         <v>831</v>
       </c>
       <c r="G20" s="149" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H20" s="107" t="s">
-        <v>934</v>
+        <v>1065</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J20" s="107"/>
       <c r="K20" s="53" t="s">
@@ -20915,10 +20919,10 @@
         <v>147</v>
       </c>
       <c r="P20" s="79" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q20" s="79" t="s">
         <v>940</v>
-      </c>
-      <c r="Q20" s="79" t="s">
-        <v>941</v>
       </c>
       <c r="R20" s="107" t="s">
         <v>63</v>
@@ -20938,7 +20942,7 @@
         <v>95</v>
       </c>
       <c r="W20" s="107" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="X20" s="107"/>
       <c r="Y20" s="107" t="s">
@@ -24097,14 +24101,14 @@
         <v>475</v>
       </c>
       <c r="H56" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I56" s="41" t="s">
         <v>932</v>
       </c>
       <c r="J56" s="107"/>
       <c r="K56" s="53" t="s">
-        <v>188</v>
+        <v>1066</v>
       </c>
       <c r="L56" s="77" t="s">
         <v>180</v>
@@ -24117,10 +24121,10 @@
         <v>146</v>
       </c>
       <c r="P56" s="79" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q56" s="79" t="s">
         <v>942</v>
-      </c>
-      <c r="Q56" s="79" t="s">
-        <v>943</v>
       </c>
       <c r="R56" s="107" t="s">
         <v>63</v>
@@ -24269,7 +24273,7 @@
         <v>561</v>
       </c>
       <c r="F58" s="106" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G58" s="149" t="s">
         <v>475</v>
@@ -24295,10 +24299,10 @@
         <v>131</v>
       </c>
       <c r="P58" s="79" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q58" s="79" t="s">
         <v>944</v>
-      </c>
-      <c r="Q58" s="79" t="s">
-        <v>945</v>
       </c>
       <c r="R58" s="41" t="s">
         <v>63</v>
@@ -24323,7 +24327,7 @@
       </c>
       <c r="X58" s="107"/>
       <c r="Y58" s="107" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Z58" s="107" t="s">
         <v>223</v>
@@ -24386,10 +24390,10 @@
         <v>142</v>
       </c>
       <c r="P59" s="79" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Q59" s="79" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R59" s="41" t="s">
         <v>63</v>
@@ -24410,7 +24414,7 @@
         <v>95</v>
       </c>
       <c r="W59" s="107" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="X59" s="107"/>
       <c r="Y59" s="107" t="s">
@@ -25272,13 +25276,13 @@
         <v>646</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Q69" s="79" t="s">
         <v>714</v>
       </c>
       <c r="R69" s="142" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="S69" s="142" t="str">
         <f t="shared" si="1"/>
@@ -25360,10 +25364,10 @@
         <v>647</v>
       </c>
       <c r="P70" s="41" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Q70" s="79" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="R70" s="142" t="s">
         <v>63</v>
@@ -25448,10 +25452,10 @@
         <v>648</v>
       </c>
       <c r="P71" s="41" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q71" s="79" t="s">
         <v>950</v>
-      </c>
-      <c r="Q71" s="79" t="s">
-        <v>951</v>
       </c>
       <c r="R71" s="142" t="s">
         <v>63</v>
@@ -25536,10 +25540,10 @@
         <v>649</v>
       </c>
       <c r="P72" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q72" s="79" t="s">
         <v>952</v>
-      </c>
-      <c r="Q72" s="79" t="s">
-        <v>953</v>
       </c>
       <c r="R72" s="142" t="s">
         <v>63</v>
@@ -25624,10 +25628,10 @@
         <v>650</v>
       </c>
       <c r="P73" s="41" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q73" s="79" t="s">
         <v>954</v>
-      </c>
-      <c r="Q73" s="79" t="s">
-        <v>955</v>
       </c>
       <c r="R73" s="142" t="s">
         <v>63</v>
@@ -25712,10 +25716,10 @@
         <v>651</v>
       </c>
       <c r="P74" s="41" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q74" s="79" t="s">
         <v>956</v>
-      </c>
-      <c r="Q74" s="79" t="s">
-        <v>957</v>
       </c>
       <c r="R74" s="142" t="s">
         <v>63</v>
@@ -25800,10 +25804,10 @@
         <v>652</v>
       </c>
       <c r="P75" s="41" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q75" s="79" t="s">
         <v>958</v>
-      </c>
-      <c r="Q75" s="79" t="s">
-        <v>959</v>
       </c>
       <c r="R75" s="142" t="s">
         <v>63</v>
@@ -28342,13 +28346,13 @@
         <v>277</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>272</v>
@@ -28366,13 +28370,13 @@
         <v>425</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M1" s="61" t="s">
         <v>284</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O1" s="61" t="s">
         <v>274</v>
@@ -28387,7 +28391,7 @@
         <v>275</v>
       </c>
       <c r="S1" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="T1" s="61" t="s">
         <v>276</v>
@@ -28398,63 +28402,63 @@
     </row>
     <row r="2" spans="1:21" s="159" customFormat="1" ht="44.25" customHeight="1">
       <c r="A2" s="157" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B2" s="157"/>
       <c r="C2" s="157" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D2" s="157" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="158"/>
       <c r="F2" s="157" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G2" s="157" t="s">
+        <v>999</v>
+      </c>
+      <c r="H2" s="157" t="s">
         <v>1000</v>
       </c>
-      <c r="H2" s="157" t="s">
+      <c r="I2" s="157" t="s">
         <v>1001</v>
       </c>
-      <c r="I2" s="157" t="s">
+      <c r="J2" s="157" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K2" s="157" t="s">
         <v>1002</v>
       </c>
-      <c r="J2" s="157" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K2" s="157" t="s">
-        <v>1003</v>
-      </c>
       <c r="L2" s="163" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M2" s="163" t="s">
         <v>1005</v>
       </c>
-      <c r="M2" s="163" t="s">
-        <v>1006</v>
-      </c>
       <c r="N2" s="163" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O2" s="163" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P2" s="158" t="s">
         <v>1010</v>
       </c>
-      <c r="O2" s="163" t="s">
-        <v>1009</v>
-      </c>
-      <c r="P2" s="158" t="s">
+      <c r="Q2" s="158" t="s">
         <v>1011</v>
       </c>
-      <c r="Q2" s="158" t="s">
+      <c r="R2" s="158" t="s">
         <v>1012</v>
       </c>
-      <c r="R2" s="158" t="s">
+      <c r="S2" s="158" t="s">
         <v>1013</v>
       </c>
-      <c r="S2" s="158" t="s">
-        <v>1014</v>
-      </c>
       <c r="T2" s="158" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="U2" s="157" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="159" customHeight="1">
@@ -28462,19 +28466,19 @@
         <v>914</v>
       </c>
       <c r="B3" s="161" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="161" t="s">
         <v>377</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E3" s="76" t="s">
         <v>910</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G3" s="70" t="s">
         <v>911</v>
@@ -28490,10 +28494,10 @@
         <v>180</v>
       </c>
       <c r="L3" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N3" s="161" t="s">
         <v>90</v>
@@ -28517,7 +28521,7 @@
         <v>279</v>
       </c>
       <c r="U3" s="70" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="85.5" customHeight="1">
@@ -28531,16 +28535,16 @@
         <v>377</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
@@ -28592,13 +28596,13 @@
         <v>377</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>63</v>
@@ -28653,13 +28657,13 @@
         <v>377</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>485</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>63</v>
@@ -28720,7 +28724,7 @@
         <v>485</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>63</v>
@@ -28832,7 +28836,7 @@
         <v>458</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C9" s="161">
         <v>1</v>
@@ -29030,7 +29034,7 @@
         <v>505</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>565</v>
@@ -29193,10 +29197,10 @@
         <v>510</v>
       </c>
       <c r="E15" s="76" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F15" s="76" t="s">
         <v>1059</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>1060</v>
       </c>
       <c r="G15" s="187"/>
       <c r="H15" s="187"/>
@@ -29241,7 +29245,7 @@
         <v>292</v>
       </c>
       <c r="B16" s="161" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C16" s="161">
         <v>3</v>
@@ -29361,7 +29365,7 @@
         <v>296</v>
       </c>
       <c r="B18" s="161" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C18" s="41">
         <v>1</v>
@@ -29417,10 +29421,10 @@
     </row>
     <row r="19" spans="1:21" ht="97.5" customHeight="1">
       <c r="A19" s="161" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B19" s="161" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C19" s="41">
         <v>1</v>
@@ -29429,7 +29433,7 @@
         <v>511</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F19" s="76" t="s">
         <v>620</v>
@@ -29483,7 +29487,7 @@
         <v>294</v>
       </c>
       <c r="B20" s="161" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C20" s="167">
         <v>1</v>
@@ -30158,7 +30162,7 @@
         <v>301</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C31" s="167">
         <v>3</v>
@@ -30217,7 +30221,7 @@
         <v>715</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C32" s="161">
         <v>1</v>
@@ -30400,7 +30404,7 @@
         <v>718</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C35" s="161">
         <v>3</v>
@@ -30774,7 +30778,7 @@
         <v>309</v>
       </c>
       <c r="B41" s="161" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C41" s="167">
         <v>1</v>
@@ -30835,7 +30839,7 @@
         <v>397</v>
       </c>
       <c r="B42" s="161" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>488</v>
@@ -30959,7 +30963,7 @@
         <v>474</v>
       </c>
       <c r="B44" s="161" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C44" s="161" t="s">
         <v>377</v>
@@ -31433,7 +31437,7 @@
         <v>799</v>
       </c>
       <c r="B52" s="161" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C52" s="167">
         <v>1</v>
@@ -44361,12 +44365,6 @@
   </sheetData>
   <autoFilter ref="A1:U52"/>
   <mergeCells count="13">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E47:E49"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
@@ -44374,6 +44372,12 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="H12:H15"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <conditionalFormatting sqref="K20:K23 K27:K30 N20:N31 N36 I1 N3:N18 I35:I36 N50 M3:M31 M33:M36 I53:I1048576 M53:N1048576 N39:N46 I42:I50 M39:M50 I3:I33">
@@ -44528,13 +44532,13 @@
       <c r="C2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
       <c r="I2" s="16" t="s">
         <v>46</v>
       </c>
@@ -44549,13 +44553,13 @@
       <c r="C3" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="209" t="s">
+      <c r="D3" s="208" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="210"/>
       <c r="I3" s="38" t="s">
         <v>171</v>
       </c>
@@ -44570,13 +44574,13 @@
       <c r="C4" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="211" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
       <c r="I4" s="39" t="s">
         <v>173</v>
       </c>
@@ -44591,13 +44595,13 @@
       <c r="C5" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="201" t="s">
+      <c r="D5" s="213" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="203"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="215"/>
       <c r="I5" s="40" t="s">
         <v>173</v>
       </c>
@@ -44612,13 +44616,13 @@
       <c r="C6" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="213" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="203"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="215"/>
       <c r="I6" s="40" t="s">
         <v>173</v>
       </c>
@@ -44633,13 +44637,13 @@
       <c r="C7" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="213" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="203"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="215"/>
       <c r="I7" s="40" t="s">
         <v>173</v>
       </c>
@@ -44654,13 +44658,13 @@
       <c r="C8" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="201" t="s">
+      <c r="D8" s="213" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="203"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="215"/>
       <c r="I8" s="40" t="s">
         <v>173</v>
       </c>
@@ -44675,13 +44679,13 @@
       <c r="C9" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="213" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="203"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="215"/>
       <c r="I9" s="40" t="s">
         <v>173</v>
       </c>
@@ -44696,13 +44700,13 @@
       <c r="C10" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="213" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="203"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="215"/>
       <c r="I10" s="40" t="s">
         <v>173</v>
       </c>
@@ -44719,13 +44723,13 @@
       <c r="C11" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="201" t="s">
+      <c r="D11" s="213" t="s">
         <v>253</v>
       </c>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="203"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="215"/>
       <c r="I11" s="40" t="s">
         <v>173</v>
       </c>
@@ -44740,13 +44744,13 @@
       <c r="C12" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="201" t="s">
+      <c r="D12" s="213" t="s">
         <v>254</v>
       </c>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="203"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="215"/>
       <c r="I12" s="40" t="s">
         <v>173</v>
       </c>
@@ -44761,13 +44765,13 @@
       <c r="C13" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="201" t="s">
+      <c r="D13" s="213" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="203"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="215"/>
       <c r="I13" s="40" t="s">
         <v>173</v>
       </c>
@@ -44782,13 +44786,13 @@
       <c r="C14" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="201" t="s">
+      <c r="D14" s="213" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="203"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="215"/>
       <c r="I14" s="40" t="s">
         <v>173</v>
       </c>
@@ -44801,13 +44805,13 @@
       <c r="C15" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="204" t="s">
+      <c r="D15" s="201" t="s">
         <v>391</v>
       </c>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="206"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="203"/>
       <c r="I15" s="40" t="s">
         <v>173</v>
       </c>
@@ -44822,13 +44826,13 @@
       <c r="C16" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="204" t="s">
+      <c r="D16" s="201" t="s">
         <v>393</v>
       </c>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="206"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="203"/>
       <c r="I16" s="40" t="s">
         <v>173</v>
       </c>
@@ -44843,13 +44847,13 @@
       <c r="C17" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="204" t="s">
+      <c r="D17" s="201" t="s">
         <v>396</v>
       </c>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="206"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="203"/>
       <c r="I17" s="40" t="s">
         <v>173</v>
       </c>
@@ -44864,13 +44868,13 @@
       <c r="C18" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D18" s="204" t="s">
+      <c r="D18" s="201" t="s">
         <v>410</v>
       </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="206"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="203"/>
       <c r="I18" s="40" t="s">
         <v>173</v>
       </c>
@@ -44885,13 +44889,13 @@
       <c r="C19" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D19" s="204" t="s">
+      <c r="D19" s="201" t="s">
         <v>414</v>
       </c>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="206"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
       <c r="I19" s="40" t="s">
         <v>173</v>
       </c>
@@ -44906,13 +44910,13 @@
       <c r="C20" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D20" s="204" t="s">
+      <c r="D20" s="201" t="s">
         <v>466</v>
       </c>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="206"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="203"/>
       <c r="I20" s="40" t="s">
         <v>173</v>
       </c>
@@ -44927,13 +44931,13 @@
       <c r="C21" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D21" s="204" t="s">
+      <c r="D21" s="201" t="s">
         <v>572</v>
       </c>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="206"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="203"/>
       <c r="I21" s="40" t="s">
         <v>173</v>
       </c>
@@ -44948,13 +44952,13 @@
       <c r="C22" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="204" t="s">
+      <c r="D22" s="201" t="s">
         <v>599</v>
       </c>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="206"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="203"/>
       <c r="I22" s="40" t="s">
         <v>173</v>
       </c>
@@ -44969,13 +44973,13 @@
       <c r="C23" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D23" s="204" t="s">
+      <c r="D23" s="201" t="s">
         <v>601</v>
       </c>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="206"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="203"/>
       <c r="I23" s="40" t="s">
         <v>173</v>
       </c>
@@ -44990,13 +44994,13 @@
       <c r="C24" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D24" s="204" t="s">
+      <c r="D24" s="201" t="s">
         <v>633</v>
       </c>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="206"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="203"/>
       <c r="I24" s="40" t="s">
         <v>173</v>
       </c>
@@ -45011,13 +45015,13 @@
       <c r="C25" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="204" t="s">
+      <c r="D25" s="201" t="s">
         <v>641</v>
       </c>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="206"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="203"/>
       <c r="I25" s="40" t="s">
         <v>637</v>
       </c>
@@ -45032,13 +45036,13 @@
       <c r="C26" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D26" s="204" t="s">
+      <c r="D26" s="201" t="s">
         <v>643</v>
       </c>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="206"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="203"/>
       <c r="I26" s="40" t="s">
         <v>637</v>
       </c>
@@ -45053,13 +45057,13 @@
       <c r="C27" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D27" s="204" t="s">
+      <c r="D27" s="201" t="s">
         <v>663</v>
       </c>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="206"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="40" t="s">
         <v>173</v>
       </c>
@@ -45074,13 +45078,13 @@
       <c r="C28" s="124" t="s">
         <v>409</v>
       </c>
-      <c r="D28" s="214" t="s">
+      <c r="D28" s="204" t="s">
         <v>664</v>
       </c>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="216"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="206"/>
       <c r="I28" s="125" t="s">
         <v>173</v>
       </c>
@@ -45101,7 +45105,7 @@
       <c r="E29" s="200"/>
       <c r="F29" s="200"/>
       <c r="G29" s="200"/>
-      <c r="H29" s="207"/>
+      <c r="H29" s="216"/>
       <c r="I29" s="125" t="s">
         <v>173</v>
       </c>
@@ -45124,7 +45128,7 @@
       <c r="E30" s="200"/>
       <c r="F30" s="200"/>
       <c r="G30" s="200"/>
-      <c r="H30" s="207"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="125" t="s">
         <v>173</v>
       </c>
@@ -45464,6 +45468,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D22:H22"/>
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="D41:H41"/>
@@ -45480,34 +45512,6 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D18:H18"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
